--- a/results/comparison_55_18_15.xlsx
+++ b/results/comparison_55_18_15.xlsx
@@ -1065,18 +1065,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.9646017699115" customWidth="1"/>
-    <col min="2" max="2" width="22.9734513274336" customWidth="1"/>
-    <col min="3" max="3" width="21.716814159292" customWidth="1"/>
-    <col min="4" max="4" width="22.1061946902655" customWidth="1"/>
-    <col min="5" max="5" width="22.8407079646018" customWidth="1"/>
-    <col min="6" max="6" width="19.9203539823009" customWidth="1"/>
-    <col min="7" max="7" width="31.6017699115044" customWidth="1"/>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="17.1327433628319" customWidth="1"/>
+    <col min="3" max="3" width="18.5929203539823" customWidth="1"/>
+    <col min="4" max="4" width="17.5309734513274" customWidth="1"/>
+    <col min="5" max="5" width="16.5309734513274" customWidth="1"/>
+    <col min="6" max="6" width="17.1327433628319" customWidth="1"/>
+    <col min="7" max="7" width="23.7699115044248" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1130,22 +1130,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>12432.9287878788</v>
+        <v>12026.2055769231</v>
       </c>
       <c r="C3">
-        <v>11735.2</v>
+        <v>11359.7</v>
       </c>
       <c r="D3">
-        <v>83559.0039136822</v>
+        <v>49810.2517323594</v>
       </c>
       <c r="E3">
-        <v>496.606060606061</v>
+        <v>471.326923076923</v>
       </c>
       <c r="F3">
-        <v>390.5</v>
+        <v>364.5</v>
       </c>
       <c r="G3">
-        <v>12466.0266299357</v>
+        <v>11346.5661982248</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1245,22 +1245,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>12557.1067567568</v>
+        <v>12084.9598412698</v>
       </c>
       <c r="C8">
-        <v>12251.62</v>
+        <v>11188.39</v>
       </c>
       <c r="D8">
-        <v>32608.5111516435</v>
+        <v>77104.5339444192</v>
       </c>
       <c r="E8">
-        <v>498.986486486487</v>
+        <v>447.119047619048</v>
       </c>
       <c r="F8">
-        <v>351.5</v>
+        <v>354.5</v>
       </c>
       <c r="G8">
-        <v>11576.303871439</v>
+        <v>6648.74376417234</v>
       </c>
     </row>
   </sheetData>

--- a/results/comparison_55_18_15.xlsx
+++ b/results/comparison_55_18_15.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Filename</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>2_data</t>
+  </si>
+  <si>
+    <t>11346.56619</t>
   </si>
   <si>
     <t>3_data</t>
@@ -81,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +95,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,155 +562,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,7 +1067,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1145,7 +1147,7 @@
         <v>364.5</v>
       </c>
       <c r="G3">
-        <v>11346.5661982248</v>
+        <v>6642.36244897959</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1167,13 +1169,13 @@
       <c r="F4">
         <v>356.5</v>
       </c>
-      <c r="G4">
-        <v>6642.36244897959</v>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>12587.7802439024</v>
@@ -1196,7 +1198,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>12504.1455172414</v>
@@ -1219,7 +1221,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>12604.9114285714</v>
@@ -1242,7 +1244,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>12084.9598412698</v>
